--- a/codes/02_csv_processing/hw_200.xlsx
+++ b/codes/02_csv_processing/hw_200.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JD_Sharif\Python\Python_DataScience\github\codes\02_csv_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28223DB-5FAA-4694-8612-810CEBA04654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1EAD1-00EE-42A2-A5A0-03CBADE54F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-11640" windowWidth="20640" windowHeight="11040" xr2:uid="{505742BB-77C3-42A8-9F29-C79D9CA983C6}"/>
   </bookViews>
   <sheets>
     <sheet name="hw_200" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -871,9 +871,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B7A8CB-C03C-46F6-AEB4-6B68D29BD60A}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/codes/02_csv_processing/hw_200.xlsx
+++ b/codes/02_csv_processing/hw_200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JD_Sharif\Python\Python_DataScience\github\codes\02_csv_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E1EAD1-00EE-42A2-A5A0-03CBADE54F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B76115E-0518-4423-A36A-1A85375D7205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20640" windowHeight="11040" xr2:uid="{505742BB-77C3-42A8-9F29-C79D9CA983C6}"/>
+    <workbookView xWindow="-120" yWindow="-11640" windowWidth="20730" windowHeight="11040" xr2:uid="{505742BB-77C3-42A8-9F29-C79D9CA983C6}"/>
   </bookViews>
   <sheets>
     <sheet name="hw_200" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
   <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
